--- a/Assets/Documentos/detalhesDeMundo.xlsx
+++ b/Assets/Documentos/detalhesDeMundo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="caracteristicas das cidades" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="367">
   <si>
     <t>caracteristicas das cidades</t>
   </si>
@@ -515,9 +515,6 @@
     <t>Escuridão e noite</t>
   </si>
   <si>
-    <t>filho de LOgan</t>
-  </si>
-  <si>
     <t>Tâmara</t>
   </si>
   <si>
@@ -1116,9 +1113,6 @@
   </si>
   <si>
     <t>veneno</t>
-  </si>
-  <si>
-    <t>normal</t>
   </si>
   <si>
     <t>planta</t>
@@ -1817,7 +1811,7 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2333,14 +2327,14 @@
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -2349,26 +2343,26 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -2376,10 +2370,10 @@
         <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="7"/>
@@ -2389,14 +2383,14 @@
         <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -2404,14 +2398,14 @@
         <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -2419,10 +2413,10 @@
         <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="7"/>
@@ -2432,10 +2426,10 @@
         <v>71</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="7"/>
@@ -2445,14 +2439,14 @@
         <v>71</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -2464,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2491,12 +2485,12 @@
         <v>142</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>143</v>
@@ -2508,16 +2502,16 @@
         <v>145</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>148</v>
@@ -2529,18 +2523,18 @@
         <v>147</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>149</v>
@@ -2555,15 +2549,15 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>152</v>
@@ -2577,7 +2571,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>157</v>
@@ -2591,7 +2585,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>158</v>
@@ -2616,7 +2610,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>163</v>
@@ -2625,60 +2619,60 @@
         <v>164</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>147</v>
@@ -2686,41 +2680,41 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2732,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G8"/>
     </sheetView>
   </sheetViews>
@@ -2779,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>29</v>
@@ -2793,49 +2787,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2843,49 +2837,49 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2893,49 +2887,49 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2943,49 +2937,49 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>209</v>
-      </c>
       <c r="I6" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2993,45 +2987,45 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -3039,35 +3033,35 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -3076,7 +3070,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3089,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3102,7 +3096,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3115,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -3128,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3182,7 +3176,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -3198,7 +3192,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>36</v>
@@ -3215,209 +3209,209 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
